--- a/Data_frame/balancos_definitivos/VBBR3.xlsx
+++ b/Data_frame/balancos_definitivos/VBBR3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC80"/>
+  <dimension ref="A1:AF80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -579,6 +579,21 @@
           <t>30/09/2023</t>
         </is>
       </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>31/12/2023</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>31/03/2024</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>30/06/2024</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -670,6 +685,15 @@
       <c r="AC2" t="n">
         <v>40978001.92</v>
       </c>
+      <c r="AD2" t="n">
+        <v>43481001.984</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>43157999.616</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>44302999.552</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -761,6 +785,15 @@
       <c r="AC3" t="n">
         <v>22271000.576</v>
       </c>
+      <c r="AD3" t="n">
+        <v>23598999.552</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>23079000.064</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>24764000.256</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -852,6 +885,15 @@
       <c r="AC4" t="n">
         <v>6435999.744</v>
       </c>
+      <c r="AD4" t="n">
+        <v>6665999.872</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>5475999.744</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>8224999.936</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -943,6 +985,15 @@
       <c r="AC5" t="n">
         <v>0</v>
       </c>
+      <c r="AD5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1034,6 +1085,15 @@
       <c r="AC6" t="n">
         <v>6264999.936</v>
       </c>
+      <c r="AD6" t="n">
+        <v>6135000.064</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>6042999.808</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>5877000.192</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1125,6 +1185,15 @@
       <c r="AC7" t="n">
         <v>6327000.064</v>
       </c>
+      <c r="AD7" t="n">
+        <v>5953999.872</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>7107999.744</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>6264000</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1216,6 +1285,15 @@
       <c r="AC8" t="n">
         <v>0</v>
       </c>
+      <c r="AD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1307,6 +1385,15 @@
       <c r="AC9" t="n">
         <v>2156999.936</v>
       </c>
+      <c r="AD9" t="n">
+        <v>3641999.872</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>3152000</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>3081999.872</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1398,6 +1485,15 @@
       <c r="AC10" t="n">
         <v>119000</v>
       </c>
+      <c r="AD10" t="n">
+        <v>106000</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>109000</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>130000</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1489,6 +1585,15 @@
       <c r="AC11" t="n">
         <v>967000</v>
       </c>
+      <c r="AD11" t="n">
+        <v>1096000</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>1191000.064</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>1186000</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1580,6 +1685,15 @@
       <c r="AC12" t="n">
         <v>6047000.064</v>
       </c>
+      <c r="AD12" t="n">
+        <v>7327000.064</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>7322999.808</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>7045000.192</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1671,6 +1785,15 @@
       <c r="AC13" t="n">
         <v>0</v>
       </c>
+      <c r="AD13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1762,6 +1885,15 @@
       <c r="AC14" t="n">
         <v>0</v>
       </c>
+      <c r="AD14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1853,6 +1985,15 @@
       <c r="AC15" t="n">
         <v>0</v>
       </c>
+      <c r="AD15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1944,6 +2085,15 @@
       <c r="AC16" t="n">
         <v>417000</v>
       </c>
+      <c r="AD16" t="n">
+        <v>391000</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>364000</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>373000</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2035,6 +2185,15 @@
       <c r="AC17" t="n">
         <v>0</v>
       </c>
+      <c r="AD17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2126,6 +2285,15 @@
       <c r="AC18" t="n">
         <v>0</v>
       </c>
+      <c r="AD18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2217,6 +2385,15 @@
       <c r="AC19" t="n">
         <v>2787000.064</v>
       </c>
+      <c r="AD19" t="n">
+        <v>4148999.936</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>4264000</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>3992999.936</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2308,6 +2485,15 @@
       <c r="AC20" t="n">
         <v>66000</v>
       </c>
+      <c r="AD20" t="n">
+        <v>62000</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>58000</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>54000</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2399,6 +2585,15 @@
       <c r="AC21" t="n">
         <v>0</v>
       </c>
+      <c r="AD21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2490,6 +2685,15 @@
       <c r="AC22" t="n">
         <v>4885000.192</v>
       </c>
+      <c r="AD22" t="n">
+        <v>4489999.872</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>4440000</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>4524000.256</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2581,6 +2785,15 @@
       <c r="AC23" t="n">
         <v>6886000.128</v>
       </c>
+      <c r="AD23" t="n">
+        <v>6953999.872</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>6931999.744</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>6749000.192</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2672,6 +2885,15 @@
       <c r="AC24" t="n">
         <v>889000</v>
       </c>
+      <c r="AD24" t="n">
+        <v>1111000.064</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>1384000</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>1220999.936</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2763,6 +2985,15 @@
       <c r="AC25" t="n">
         <v>0</v>
       </c>
+      <c r="AD25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2854,6 +3085,15 @@
       <c r="AC26" t="n">
         <v>40978001.92</v>
       </c>
+      <c r="AD26" t="n">
+        <v>43481001.984</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>43157999.616</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>44302999.552</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2945,6 +3185,15 @@
       <c r="AC27" t="n">
         <v>9628000.255999999</v>
       </c>
+      <c r="AD27" t="n">
+        <v>9996000.255999999</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>10490000.384</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>9952000</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3036,6 +3285,15 @@
       <c r="AC28" t="n">
         <v>240000</v>
       </c>
+      <c r="AD28" t="n">
+        <v>302000</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>216000</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>245000</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3127,6 +3385,15 @@
       <c r="AC29" t="n">
         <v>4107000.064</v>
       </c>
+      <c r="AD29" t="n">
+        <v>4496000</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>4353999.872</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>3104000</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3218,6 +3485,15 @@
       <c r="AC30" t="n">
         <v>448000</v>
       </c>
+      <c r="AD30" t="n">
+        <v>1034000</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>421000</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>27000</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3309,6 +3585,15 @@
       <c r="AC31" t="n">
         <v>1608000</v>
       </c>
+      <c r="AD31" t="n">
+        <v>1470000</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>2951000.064</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>3984000</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3400,6 +3685,15 @@
       <c r="AC32" t="n">
         <v>0</v>
       </c>
+      <c r="AD32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3491,6 +3785,15 @@
       <c r="AC33" t="n">
         <v>441000</v>
       </c>
+      <c r="AD33" t="n">
+        <v>1124000</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>683000</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>1154000</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3582,6 +3885,15 @@
       <c r="AC34" t="n">
         <v>2677000.128</v>
       </c>
+      <c r="AD34" t="n">
+        <v>1415000.064</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>1709999.936</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>1310999.936</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3673,6 +3985,15 @@
       <c r="AC35" t="n">
         <v>107000</v>
       </c>
+      <c r="AD35" t="n">
+        <v>155000</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>155000</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>127000</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3764,6 +4085,15 @@
       <c r="AC36" t="n">
         <v>0</v>
       </c>
+      <c r="AD36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3855,6 +4185,15 @@
       <c r="AC37" t="n">
         <v>17795000.32</v>
       </c>
+      <c r="AD37" t="n">
+        <v>17753999.36</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>16112000</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>17813000.192</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -3946,6 +4285,15 @@
       <c r="AC38" t="n">
         <v>14394999.808</v>
       </c>
+      <c r="AD38" t="n">
+        <v>14048000</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>12696000.512</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>14721999.872</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -4037,6 +4385,15 @@
       <c r="AC39" t="n">
         <v>0</v>
       </c>
+      <c r="AD39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -4128,6 +4485,15 @@
       <c r="AC40" t="n">
         <v>0</v>
       </c>
+      <c r="AD40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -4219,6 +4585,15 @@
       <c r="AC41" t="n">
         <v>0</v>
       </c>
+      <c r="AD41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -4310,6 +4685,15 @@
       <c r="AC42" t="n">
         <v>0</v>
       </c>
+      <c r="AD42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -4401,6 +4785,15 @@
       <c r="AC43" t="n">
         <v>3400000</v>
       </c>
+      <c r="AD43" t="n">
+        <v>3705999.872</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>3416000</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>3091000.064</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -4492,6 +4885,15 @@
       <c r="AC44" t="n">
         <v>0</v>
       </c>
+      <c r="AD44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -4583,6 +4985,15 @@
       <c r="AC45" t="n">
         <v>0</v>
       </c>
+      <c r="AD45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -4674,6 +5085,15 @@
       <c r="AC46" t="n">
         <v>0</v>
       </c>
+      <c r="AD46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -4765,6 +5185,15 @@
       <c r="AC47" t="n">
         <v>13555000.32</v>
       </c>
+      <c r="AD47" t="n">
+        <v>15731000.32</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>16556000.256</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>16538000.384</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -4856,6 +5285,15 @@
       <c r="AC48" t="n">
         <v>7578999.808</v>
       </c>
+      <c r="AD48" t="n">
+        <v>7578999.808</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>7578999.808</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>10033999.872</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -4947,6 +5385,15 @@
       <c r="AC49" t="n">
         <v>-1107000.064</v>
       </c>
+      <c r="AD49" t="n">
+        <v>-1091000.064</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>-1063000</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>2000</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -5038,6 +5485,15 @@
       <c r="AC50" t="n">
         <v>0</v>
       </c>
+      <c r="AD50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -5129,6 +5585,15 @@
       <c r="AC51" t="n">
         <v>8057999.872</v>
       </c>
+      <c r="AD51" t="n">
+        <v>10632999.936</v>
+      </c>
+      <c r="AE51" t="n">
+        <v>11422000.128</v>
+      </c>
+      <c r="AF51" t="n">
+        <v>7850999.808</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -5220,6 +5685,15 @@
       <c r="AC52" t="n">
         <v>0</v>
       </c>
+      <c r="AD52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -5311,6 +5785,15 @@
       <c r="AC53" t="n">
         <v>-975000</v>
       </c>
+      <c r="AD53" t="n">
+        <v>-1390000</v>
+      </c>
+      <c r="AE53" t="n">
+        <v>-1382000</v>
+      </c>
+      <c r="AF53" t="n">
+        <v>-1348999.936</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -5402,6 +5885,15 @@
       <c r="AC54" t="n">
         <v>0</v>
       </c>
+      <c r="AD54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -5493,6 +5985,15 @@
       <c r="AC55" t="n">
         <v>0</v>
       </c>
+      <c r="AD55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -5582,6 +6083,15 @@
         <v>0</v>
       </c>
       <c r="AC56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5619,6 +6129,9 @@
       <c r="AA57" t="inlineStr"/>
       <c r="AB57" t="inlineStr"/>
       <c r="AC57" t="inlineStr"/>
+      <c r="AD57" t="inlineStr"/>
+      <c r="AE57" t="inlineStr"/>
+      <c r="AF57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -5654,6 +6167,9 @@
       <c r="AA58" t="inlineStr"/>
       <c r="AB58" t="inlineStr"/>
       <c r="AC58" t="inlineStr"/>
+      <c r="AD58" t="inlineStr"/>
+      <c r="AE58" t="inlineStr"/>
+      <c r="AF58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -5743,6 +6259,15 @@
       <c r="AC59" t="n">
         <v>43063001.088</v>
       </c>
+      <c r="AD59" t="n">
+        <v>43663003.648</v>
+      </c>
+      <c r="AE59" t="n">
+        <v>39599001.6</v>
+      </c>
+      <c r="AF59" t="n">
+        <v>42109001.728</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -5832,6 +6357,15 @@
       <c r="AC60" t="n">
         <v>-40000999.424</v>
       </c>
+      <c r="AD60" t="n">
+        <v>-41258004.48</v>
+      </c>
+      <c r="AE60" t="n">
+        <v>-37488001.024</v>
+      </c>
+      <c r="AF60" t="n">
+        <v>-40097001.472</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -5921,6 +6455,15 @@
       <c r="AC61" t="n">
         <v>3062000.128</v>
       </c>
+      <c r="AD61" t="n">
+        <v>2404999.68</v>
+      </c>
+      <c r="AE61" t="n">
+        <v>2111000.064</v>
+      </c>
+      <c r="AF61" t="n">
+        <v>2012000</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -6010,6 +6553,15 @@
       <c r="AC62" t="n">
         <v>-729000</v>
       </c>
+      <c r="AD62" t="n">
+        <v>-674999.936</v>
+      </c>
+      <c r="AE62" t="n">
+        <v>-666000</v>
+      </c>
+      <c r="AF62" t="n">
+        <v>-644000</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -6099,6 +6651,15 @@
       <c r="AC63" t="n">
         <v>-197000</v>
       </c>
+      <c r="AD63" t="n">
+        <v>-232000</v>
+      </c>
+      <c r="AE63" t="n">
+        <v>-224000</v>
+      </c>
+      <c r="AF63" t="n">
+        <v>-238000</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -6188,6 +6749,15 @@
       <c r="AC64" t="n">
         <v>0</v>
       </c>
+      <c r="AD64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -6277,6 +6847,15 @@
       <c r="AC65" t="n">
         <v>0</v>
       </c>
+      <c r="AD65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -6366,6 +6945,15 @@
       <c r="AC66" t="n">
         <v>-4000</v>
       </c>
+      <c r="AD66" t="n">
+        <v>2970000.128</v>
+      </c>
+      <c r="AE66" t="n">
+        <v>408000</v>
+      </c>
+      <c r="AF66" t="n">
+        <v>12000</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -6455,6 +7043,15 @@
       <c r="AC67" t="n">
         <v>-49000</v>
       </c>
+      <c r="AD67" t="n">
+        <v>41000</v>
+      </c>
+      <c r="AE67" t="n">
+        <v>-71000</v>
+      </c>
+      <c r="AF67" t="n">
+        <v>79000</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -6544,6 +7141,15 @@
       <c r="AC68" t="n">
         <v>-413000</v>
       </c>
+      <c r="AD68" t="n">
+        <v>-50000</v>
+      </c>
+      <c r="AE68" t="n">
+        <v>-334000</v>
+      </c>
+      <c r="AF68" t="n">
+        <v>-213000</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -6633,6 +7239,15 @@
       <c r="AC69" t="n">
         <v>244000</v>
       </c>
+      <c r="AD69" t="n">
+        <v>249000</v>
+      </c>
+      <c r="AE69" t="n">
+        <v>189000</v>
+      </c>
+      <c r="AF69" t="n">
+        <v>304000</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -6721,6 +7336,15 @@
       </c>
       <c r="AC70" t="n">
         <v>-657000</v>
+      </c>
+      <c r="AD70" t="n">
+        <v>-299000</v>
+      </c>
+      <c r="AE70" t="n">
+        <v>-523000</v>
+      </c>
+      <c r="AF70" t="n">
+        <v>-517000</v>
       </c>
     </row>
     <row r="71">
@@ -6757,6 +7381,9 @@
       <c r="AA71" t="inlineStr"/>
       <c r="AB71" t="inlineStr"/>
       <c r="AC71" t="inlineStr"/>
+      <c r="AD71" t="inlineStr"/>
+      <c r="AE71" t="inlineStr"/>
+      <c r="AF71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -6792,6 +7419,9 @@
       <c r="AA72" t="inlineStr"/>
       <c r="AB72" t="inlineStr"/>
       <c r="AC72" t="inlineStr"/>
+      <c r="AD72" t="inlineStr"/>
+      <c r="AE72" t="inlineStr"/>
+      <c r="AF72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -6827,6 +7457,9 @@
       <c r="AA73" t="inlineStr"/>
       <c r="AB73" t="inlineStr"/>
       <c r="AC73" t="inlineStr"/>
+      <c r="AD73" t="inlineStr"/>
+      <c r="AE73" t="inlineStr"/>
+      <c r="AF73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -6916,6 +7549,15 @@
       <c r="AC74" t="n">
         <v>1670000</v>
       </c>
+      <c r="AD74" t="n">
+        <v>4458999.808</v>
+      </c>
+      <c r="AE74" t="n">
+        <v>1224000</v>
+      </c>
+      <c r="AF74" t="n">
+        <v>1008000</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -7005,6 +7647,15 @@
       <c r="AC75" t="n">
         <v>-483000</v>
       </c>
+      <c r="AD75" t="n">
+        <v>-1052999.936</v>
+      </c>
+      <c r="AE75" t="n">
+        <v>-451000</v>
+      </c>
+      <c r="AF75" t="n">
+        <v>-47000</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -7093,6 +7744,15 @@
       </c>
       <c r="AC76" t="n">
         <v>68000</v>
+      </c>
+      <c r="AD76" t="n">
+        <v>-109000</v>
+      </c>
+      <c r="AE76" t="n">
+        <v>16000</v>
+      </c>
+      <c r="AF76" t="n">
+        <v>-94000</v>
       </c>
     </row>
     <row r="77">
@@ -7129,6 +7789,9 @@
       <c r="AA77" t="inlineStr"/>
       <c r="AB77" t="inlineStr"/>
       <c r="AC77" t="inlineStr"/>
+      <c r="AD77" t="inlineStr"/>
+      <c r="AE77" t="inlineStr"/>
+      <c r="AF77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -7164,6 +7827,9 @@
       <c r="AA78" t="inlineStr"/>
       <c r="AB78" t="inlineStr"/>
       <c r="AC78" t="inlineStr"/>
+      <c r="AD78" t="inlineStr"/>
+      <c r="AE78" t="inlineStr"/>
+      <c r="AF78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -7253,6 +7919,15 @@
       <c r="AC79" t="n">
         <v>0</v>
       </c>
+      <c r="AD79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF79" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -7341,6 +8016,15 @@
       </c>
       <c r="AC80" t="n">
         <v>1255000.064</v>
+      </c>
+      <c r="AD80" t="n">
+        <v>3296999.936</v>
+      </c>
+      <c r="AE80" t="n">
+        <v>789000</v>
+      </c>
+      <c r="AF80" t="n">
+        <v>867000</v>
       </c>
     </row>
   </sheetData>
